--- a/downloaded_files/GENS209_Lecture-35045.xlsx
+++ b/downloaded_files/GENS209_Lecture-35045.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -256,6 +256,15 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Emad Mahmoud Abdelhalim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم أحمد محمود سامى بشر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mariam ahmed mahmoud samy bishr</x:t>
   </x:si>
   <x:si>
     <x:t>1210305</x:t>
@@ -497,7 +506,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -797,7 +806,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T40"/>
+  <x:dimension ref="A1:T41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1688,7 +1697,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6648953356</x:v>
+        <x:v>45921.9139662384</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1720,7 +1729,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4321676736</x:v>
+        <x:v>45906.6648953356</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1752,7 +1761,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6647484954</x:v>
+        <x:v>45906.4321676736</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1784,7 +1793,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.5695733449</x:v>
+        <x:v>45906.6647484954</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1816,7 +1825,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4149612269</x:v>
+        <x:v>45906.5695733449</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1848,7 +1857,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.415259375</x:v>
+        <x:v>45906.4149612269</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1880,7 +1889,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.9381506944</x:v>
+        <x:v>45906.415259375</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1912,7 +1921,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.9364390856</x:v>
+        <x:v>45914.9381506944</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1944,7 +1953,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4496525116</x:v>
+        <x:v>45914.9364390856</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1976,7 +1985,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6647642014</x:v>
+        <x:v>45906.4496525116</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2008,7 +2017,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4144680556</x:v>
+        <x:v>45906.6647642014</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2040,7 +2049,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.4145706019</x:v>
+        <x:v>45906.4144680556</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2072,7 +2081,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45914.9358393518</x:v>
+        <x:v>45906.4145706019</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2104,7 +2113,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.6653604977</x:v>
+        <x:v>45914.9358393518</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2121,6 +2130,38 @@
       <x:c r="R40" s="2" t="s"/>
       <x:c r="S40" s="2" t="s"/>
       <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45906.6653604977</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS209_Lecture-35045.xlsx
+++ b/downloaded_files/GENS209_Lecture-35045.xlsx
@@ -60,6 +60,15 @@
     <x:t>Ahmed Hamdy Aly Salman</x:t>
   </x:si>
   <x:si>
+    <x:t>1240010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد عصام احمد محمود احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed essam ahmed mahmoud</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210045</x:t>
   </x:si>
   <x:si>
@@ -130,15 +139,6 @@
   </x:si>
   <x:si>
     <x:t>Daniel Raed Mounir Takawi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200850</x:t>
-  </x:si>
-  <x:si>
-    <x:t>رنا شريف سعيد العتربي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rana sherif said eletriby</x:t>
   </x:si>
   <x:si>
     <x:t>1240310</x:t>
@@ -993,7 +993,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4149930903</x:v>
+        <x:v>45922.3444144676</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1025,7 +1025,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4143520023</x:v>
+        <x:v>45906.4149930903</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1057,7 +1057,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6646321412</x:v>
+        <x:v>45906.4143520023</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1089,7 +1089,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6652044792</x:v>
+        <x:v>45906.6646321412</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1121,7 +1121,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.9131163542</x:v>
+        <x:v>45906.6652044792</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1153,7 +1153,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.414721412</x:v>
+        <x:v>45909.9131163542</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1185,7 +1185,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.9367464468</x:v>
+        <x:v>45906.414721412</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1217,7 +1217,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6645659375</x:v>
+        <x:v>45914.9367464468</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1249,7 +1249,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4147916667</x:v>
+        <x:v>45906.6645659375</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>

--- a/downloaded_files/GENS209_Lecture-35045.xlsx
+++ b/downloaded_files/GENS209_Lecture-35045.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,15 +40,6 @@
   </x:si>
   <x:si>
     <x:t>Arwa Sherif Ibrahim Nabil Mohammad Talaat Abo Hashish</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1190303</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد ايمن احمد عبدالباقى فوده</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Ayman Ahmed Abdelbakey Fouda</x:t>
   </x:si>
   <x:si>
     <x:t>1200886</x:t>
@@ -506,7 +497,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -806,7 +797,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T40"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -929,7 +920,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45909.5069657407</x:v>
+        <x:v>45914.9376185532</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -961,7 +952,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45914.9376185532</x:v>
+        <x:v>45922.3444144676</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -993,7 +984,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45922.3444144676</x:v>
+        <x:v>45906.4149930903</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1025,7 +1016,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4149930903</x:v>
+        <x:v>45906.4143520023</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1057,7 +1048,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4143520023</x:v>
+        <x:v>45906.6646321412</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1089,7 +1080,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6646321412</x:v>
+        <x:v>45906.6652044792</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1121,7 +1112,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6652044792</x:v>
+        <x:v>45909.9131163542</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1153,7 +1144,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.9131163542</x:v>
+        <x:v>45906.414721412</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1185,7 +1176,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.414721412</x:v>
+        <x:v>45914.9367464468</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1217,7 +1208,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.9367464468</x:v>
+        <x:v>45906.6645659375</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1249,7 +1240,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6645659375</x:v>
+        <x:v>45909.4313456366</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1281,7 +1272,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.4313456366</x:v>
+        <x:v>45906.4148073727</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1313,7 +1304,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4148073727</x:v>
+        <x:v>45909.4155723727</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1345,7 +1336,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4155723727</x:v>
+        <x:v>45906.4178362269</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1377,7 +1368,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4178362269</x:v>
+        <x:v>45906.4143293981</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1409,7 +1400,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4143293981</x:v>
+        <x:v>45906.6651263079</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1441,7 +1432,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6651263079</x:v>
+        <x:v>45914.9400569097</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1473,7 +1464,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.9400569097</x:v>
+        <x:v>45914.9399318634</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1505,7 +1496,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.9399318634</x:v>
+        <x:v>45918.3984349884</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1537,7 +1528,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45918.3984349884</x:v>
+        <x:v>45906.6661830671</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1569,7 +1560,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6661830671</x:v>
+        <x:v>45909.6136512731</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1601,7 +1592,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.6136512731</x:v>
+        <x:v>45906.6645733449</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1633,7 +1624,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6645733449</x:v>
+        <x:v>45914.9369973727</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1665,7 +1656,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.9369973727</x:v>
+        <x:v>45921.9139662384</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1697,7 +1688,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45921.9139662384</x:v>
+        <x:v>45906.6648953356</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1729,7 +1720,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6648953356</x:v>
+        <x:v>45906.4321676736</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1761,7 +1752,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4321676736</x:v>
+        <x:v>45906.6647484954</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1793,7 +1784,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6647484954</x:v>
+        <x:v>45906.5695733449</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1825,7 +1816,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.5695733449</x:v>
+        <x:v>45906.4149612269</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1857,7 +1848,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4149612269</x:v>
+        <x:v>45906.415259375</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1889,7 +1880,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.415259375</x:v>
+        <x:v>45914.9381506944</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1921,7 +1912,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.9381506944</x:v>
+        <x:v>45914.9364390856</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1953,7 +1944,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.9364390856</x:v>
+        <x:v>45906.4496525116</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1985,7 +1976,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4496525116</x:v>
+        <x:v>45906.6647642014</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2017,7 +2008,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6647642014</x:v>
+        <x:v>45906.4144680556</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2049,7 +2040,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.4144680556</x:v>
+        <x:v>45906.4145706019</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2081,7 +2072,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.4145706019</x:v>
+        <x:v>45914.9358393518</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2113,7 +2104,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45914.9358393518</x:v>
+        <x:v>45906.6653604977</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2130,38 +2121,6 @@
       <x:c r="R40" s="2" t="s"/>
       <x:c r="S40" s="2" t="s"/>
       <x:c r="T40" s="2" t="s"/>
-    </x:row>
-    <x:row r="41" spans="1:20">
-      <x:c r="A41" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B41" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="C41" s="2" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="E41" s="3">
-        <x:v>45906.6653604977</x:v>
-      </x:c>
-      <x:c r="F41" s="2" t="s"/>
-      <x:c r="G41" s="2" t="s"/>
-      <x:c r="H41" s="2" t="s"/>
-      <x:c r="I41" s="2" t="s"/>
-      <x:c r="J41" s="2" t="s"/>
-      <x:c r="K41" s="2" t="s"/>
-      <x:c r="L41" s="2" t="s"/>
-      <x:c r="M41" s="2" t="s"/>
-      <x:c r="N41" s="2" t="s"/>
-      <x:c r="O41" s="2" t="s"/>
-      <x:c r="P41" s="2" t="s"/>
-      <x:c r="Q41" s="2" t="s"/>
-      <x:c r="R41" s="2" t="s"/>
-      <x:c r="S41" s="2" t="s"/>
-      <x:c r="T41" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS209_Lecture-35045.xlsx
+++ b/downloaded_files/GENS209_Lecture-35045.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -69,15 +69,6 @@
     <x:t>Alaa Waleed Hussein Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1210047</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بسنت مصطفى عبد الرحمن عبد الباقى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BASSANT MOSTAFA SABDELRAHMAN</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210132</x:t>
   </x:si>
   <x:si>
@@ -87,15 +78,6 @@
     <x:t>Bishoy Kamal Barsoum Kamal</x:t>
   </x:si>
   <x:si>
-    <x:t>1210211</x:t>
-  </x:si>
-  <x:si>
-    <x:t>تسنيم ايمن احمد فوده</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tasneem ayman ahmed abdulbaki fouda</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230169</x:t>
   </x:si>
   <x:si>
@@ -114,15 +96,6 @@
     <x:t>Jannah Allah Emad Sayed Mohamed Elghoul</x:t>
   </x:si>
   <x:si>
-    <x:t>1240045</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جني وليد محمد رأفت محمود صلاح الدين رأفت</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jana Waleed Mohamed raafat</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210350</x:t>
   </x:si>
   <x:si>
@@ -168,15 +141,6 @@
     <x:t>Salma Medhat AbdelHakam Shebl</x:t>
   </x:si>
   <x:si>
-    <x:t>1210055</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سما عاطف محمد عبد الباقى عبد الواحد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sama Atef Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210241</x:t>
   </x:si>
   <x:si>
@@ -229,15 +193,6 @@
   </x:si>
   <x:si>
     <x:t>mohamed ahmed shaaban</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210396</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد بسطاوي احمد بسطاوى احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohammed bastawi ahmed bastawi Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1210293</x:t>
@@ -497,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -797,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T40"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1016,7 +971,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4143520023</x:v>
+        <x:v>45906.6646321412</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1048,7 +1003,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6646321412</x:v>
+        <x:v>45909.9131163542</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1080,7 +1035,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6652044792</x:v>
+        <x:v>45906.414721412</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1112,7 +1067,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.9131163542</x:v>
+        <x:v>45906.6645659375</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1144,7 +1099,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.414721412</x:v>
+        <x:v>45909.4313456366</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1176,7 +1131,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.9367464468</x:v>
+        <x:v>45906.4148073727</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1208,7 +1163,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6645659375</x:v>
+        <x:v>45909.4155723727</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1240,7 +1195,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4313456366</x:v>
+        <x:v>45906.4178362269</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1272,7 +1227,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4148073727</x:v>
+        <x:v>45906.6651263079</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1304,7 +1259,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4155723727</x:v>
+        <x:v>45914.9400569097</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1336,7 +1291,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4178362269</x:v>
+        <x:v>45914.9399318634</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1368,7 +1323,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4143293981</x:v>
+        <x:v>45918.3984349884</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1400,7 +1355,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6651263079</x:v>
+        <x:v>45906.6661830671</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1432,7 +1387,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.9400569097</x:v>
+        <x:v>45909.6136512731</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1464,7 +1419,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.9399318634</x:v>
+        <x:v>45914.9369973727</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1496,7 +1451,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45918.3984349884</x:v>
+        <x:v>45921.9139662384</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1528,7 +1483,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6661830671</x:v>
+        <x:v>45906.6648953356</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1560,7 +1515,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.6136512731</x:v>
+        <x:v>45906.4321676736</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1592,7 +1547,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6645733449</x:v>
+        <x:v>45906.6647484954</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1624,7 +1579,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.9369973727</x:v>
+        <x:v>45906.5695733449</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1656,7 +1611,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45921.9139662384</x:v>
+        <x:v>45906.4149612269</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1688,7 +1643,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6648953356</x:v>
+        <x:v>45906.415259375</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1720,7 +1675,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4321676736</x:v>
+        <x:v>45914.9381506944</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1752,7 +1707,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6647484954</x:v>
+        <x:v>45914.9364390856</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1784,7 +1739,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.5695733449</x:v>
+        <x:v>45906.4496525116</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1816,7 +1771,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4149612269</x:v>
+        <x:v>45906.6647642014</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1848,7 +1803,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.415259375</x:v>
+        <x:v>45906.4144680556</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1880,7 +1835,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.9381506944</x:v>
+        <x:v>45906.4145706019</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1912,7 +1867,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.9364390856</x:v>
+        <x:v>45914.9358393518</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1944,7 +1899,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4496525116</x:v>
+        <x:v>45906.6653604977</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1961,166 +1916,6 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45906.6647642014</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45906.4144680556</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45906.4145706019</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:20">
-      <x:c r="A39" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B39" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C39" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E39" s="3">
-        <x:v>45914.9358393518</x:v>
-      </x:c>
-      <x:c r="F39" s="2" t="s"/>
-      <x:c r="G39" s="2" t="s"/>
-      <x:c r="H39" s="2" t="s"/>
-      <x:c r="I39" s="2" t="s"/>
-      <x:c r="J39" s="2" t="s"/>
-      <x:c r="K39" s="2" t="s"/>
-      <x:c r="L39" s="2" t="s"/>
-      <x:c r="M39" s="2" t="s"/>
-      <x:c r="N39" s="2" t="s"/>
-      <x:c r="O39" s="2" t="s"/>
-      <x:c r="P39" s="2" t="s"/>
-      <x:c r="Q39" s="2" t="s"/>
-      <x:c r="R39" s="2" t="s"/>
-      <x:c r="S39" s="2" t="s"/>
-      <x:c r="T39" s="2" t="s"/>
-    </x:row>
-    <x:row r="40" spans="1:20">
-      <x:c r="A40" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B40" s="2" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="C40" s="2" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="E40" s="3">
-        <x:v>45906.6653604977</x:v>
-      </x:c>
-      <x:c r="F40" s="2" t="s"/>
-      <x:c r="G40" s="2" t="s"/>
-      <x:c r="H40" s="2" t="s"/>
-      <x:c r="I40" s="2" t="s"/>
-      <x:c r="J40" s="2" t="s"/>
-      <x:c r="K40" s="2" t="s"/>
-      <x:c r="L40" s="2" t="s"/>
-      <x:c r="M40" s="2" t="s"/>
-      <x:c r="N40" s="2" t="s"/>
-      <x:c r="O40" s="2" t="s"/>
-      <x:c r="P40" s="2" t="s"/>
-      <x:c r="Q40" s="2" t="s"/>
-      <x:c r="R40" s="2" t="s"/>
-      <x:c r="S40" s="2" t="s"/>
-      <x:c r="T40" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS209_Lecture-35045.xlsx
+++ b/downloaded_files/GENS209_Lecture-35045.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -87,15 +87,6 @@
     <x:t>Jomana Waleed Abdel Moneim Amin Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1210213</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جنة الله عماد سيد محمد الغول</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jannah Allah Emad Sayed Mohamed Elghoul</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210350</x:t>
   </x:si>
   <x:si>
@@ -114,15 +105,6 @@
     <x:t>rawda emad khairy</x:t>
   </x:si>
   <x:si>
-    <x:t>1210139</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سارة حسن بكر محمد رشوان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sarah Hassan Bakr Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240226</x:t>
   </x:si>
   <x:si>
@@ -276,15 +258,6 @@
     <x:t>Nouran Najeh Jamil Jabari</x:t>
   </x:si>
   <x:si>
-    <x:t>1210382</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نوران هشام عبد السميع سليمان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nouran hisham abdulsamei  soliman</x:t>
-  </x:si>
-  <x:si>
     <x:t>1200880</x:t>
   </x:si>
   <x:si>
@@ -310,15 +283,6 @@
   </x:si>
   <x:si>
     <x:t>Hana Mamdouh Gaber Abdo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210325</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يارا ساهر انور عبدالهادي احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YARA SAHER ANWAR ABDELHADY AHMED</x:t>
   </x:si>
   <x:si>
     <x:t>1210326</x:t>
@@ -452,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1035,7 +999,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.414721412</x:v>
+        <x:v>45906.6645659375</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1067,7 +1031,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6645659375</x:v>
+        <x:v>45909.4313456366</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1099,7 +1063,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4313456366</x:v>
+        <x:v>45909.4155723727</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1131,7 +1095,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4148073727</x:v>
+        <x:v>45906.4178362269</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1163,7 +1127,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4155723727</x:v>
+        <x:v>45906.6651263079</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1195,7 +1159,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4178362269</x:v>
+        <x:v>45914.9400569097</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1227,7 +1191,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6651263079</x:v>
+        <x:v>45914.9399318634</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1259,7 +1223,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.9400569097</x:v>
+        <x:v>45918.3984349884</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1291,7 +1255,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.9399318634</x:v>
+        <x:v>45906.6661830671</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1323,7 +1287,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45918.3984349884</x:v>
+        <x:v>45909.6136512731</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1355,7 +1319,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6661830671</x:v>
+        <x:v>45914.9369973727</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1387,7 +1351,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.6136512731</x:v>
+        <x:v>45921.9139662384</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1419,7 +1383,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.9369973727</x:v>
+        <x:v>45906.6648953356</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1451,7 +1415,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45921.9139662384</x:v>
+        <x:v>45906.4321676736</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1483,7 +1447,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6648953356</x:v>
+        <x:v>45906.6647484954</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1515,7 +1479,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4321676736</x:v>
+        <x:v>45906.5695733449</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1547,7 +1511,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6647484954</x:v>
+        <x:v>45906.4149612269</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1579,7 +1543,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.5695733449</x:v>
+        <x:v>45906.415259375</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1611,7 +1575,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4149612269</x:v>
+        <x:v>45914.9381506944</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1643,7 +1607,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.415259375</x:v>
+        <x:v>45906.4496525116</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1675,7 +1639,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.9381506944</x:v>
+        <x:v>45906.6647642014</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1707,7 +1671,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.9364390856</x:v>
+        <x:v>45906.4144680556</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1739,7 +1703,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4496525116</x:v>
+        <x:v>45914.9358393518</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1771,7 +1735,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6647642014</x:v>
+        <x:v>45906.6653604977</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1789,134 +1753,6 @@
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
     </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45906.4144680556</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:20">
-      <x:c r="A33" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="E33" s="3">
-        <x:v>45906.4145706019</x:v>
-      </x:c>
-      <x:c r="F33" s="2" t="s"/>
-      <x:c r="G33" s="2" t="s"/>
-      <x:c r="H33" s="2" t="s"/>
-      <x:c r="I33" s="2" t="s"/>
-      <x:c r="J33" s="2" t="s"/>
-      <x:c r="K33" s="2" t="s"/>
-      <x:c r="L33" s="2" t="s"/>
-      <x:c r="M33" s="2" t="s"/>
-      <x:c r="N33" s="2" t="s"/>
-      <x:c r="O33" s="2" t="s"/>
-      <x:c r="P33" s="2" t="s"/>
-      <x:c r="Q33" s="2" t="s"/>
-      <x:c r="R33" s="2" t="s"/>
-      <x:c r="S33" s="2" t="s"/>
-      <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45914.9358393518</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45906.6653604977</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1929,9 +1765,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Selections of Life Long Skills (GENS209) Location : [20103]20103-60-الجيزة الرئيسي Time : Sunday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/GENS209_Lecture-35045.xlsx
+++ b/downloaded_files/GENS209_Lecture-35045.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,15 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1210181</x:t>
-  </x:si>
-  <x:si>
-    <x:t>أروى شريف إبراهيم نبيل محمد طلعت أبوحشيش</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Arwa Sherif Ibrahim Nabil Mohammad Talaat Abo Hashish</x:t>
-  </x:si>
-  <x:si>
     <x:t>1200886</x:t>
   </x:si>
   <x:si>
@@ -177,6 +168,15 @@
     <x:t>mohamed ahmed shaaban</x:t>
   </x:si>
   <x:si>
+    <x:t>1190529</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد خالد احمد حسين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Khaled Ahmed Hessien</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210293</x:t>
   </x:si>
   <x:si>
@@ -184,15 +184,6 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Emad Mahmoud Abdelhalim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240149</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم أحمد محمود سامى بشر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mariam ahmed mahmoud samy bishr</x:t>
   </x:si>
   <x:si>
     <x:t>1210305</x:t>
@@ -416,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -716,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -724,8 +715,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="35.400625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="51.310625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="31.920625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="42.710625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -807,7 +798,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.4175667824</x:v>
+        <x:v>45914.9376185532</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -839,7 +830,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45914.9376185532</x:v>
+        <x:v>45922.3444144676</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -871,7 +862,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45922.3444144676</x:v>
+        <x:v>45906.4149930903</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -903,7 +894,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4149930903</x:v>
+        <x:v>45906.6646321412</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -935,7 +926,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6646321412</x:v>
+        <x:v>45909.9131163542</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -967,7 +958,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.9131163542</x:v>
+        <x:v>45906.6645659375</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -999,7 +990,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6645659375</x:v>
+        <x:v>45909.4313456366</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1031,7 +1022,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.4313456366</x:v>
+        <x:v>45909.4155723727</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1063,7 +1054,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4155723727</x:v>
+        <x:v>45906.4178362269</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1095,7 +1086,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4178362269</x:v>
+        <x:v>45906.6651263079</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1127,7 +1118,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6651263079</x:v>
+        <x:v>45914.9400569097</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1159,7 +1150,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.9400569097</x:v>
+        <x:v>45914.9399318634</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1191,7 +1182,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.9399318634</x:v>
+        <x:v>45918.3984349884</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1223,7 +1214,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45918.3984349884</x:v>
+        <x:v>45906.6661830671</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1255,7 +1246,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6661830671</x:v>
+        <x:v>45909.6136512731</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1287,7 +1278,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.6136512731</x:v>
+        <x:v>45928.5986616551</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1351,7 +1342,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45921.9139662384</x:v>
+        <x:v>45906.6648953356</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1383,7 +1374,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6648953356</x:v>
+        <x:v>45906.4321676736</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1415,7 +1406,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4321676736</x:v>
+        <x:v>45906.6647484954</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1447,7 +1438,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6647484954</x:v>
+        <x:v>45906.5695733449</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1479,7 +1470,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.5695733449</x:v>
+        <x:v>45906.4149612269</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1511,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4149612269</x:v>
+        <x:v>45906.415259375</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1543,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.415259375</x:v>
+        <x:v>45914.9381506944</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1575,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.9381506944</x:v>
+        <x:v>45906.4496525116</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1607,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4496525116</x:v>
+        <x:v>45906.6647642014</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1639,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6647642014</x:v>
+        <x:v>45906.4144680556</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1671,7 +1662,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4144680556</x:v>
+        <x:v>45914.9358393518</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1703,7 +1694,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.9358393518</x:v>
+        <x:v>45906.6653604977</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1720,38 +1711,6 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45906.6653604977</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS209_Lecture-35045.xlsx
+++ b/downloaded_files/GENS209_Lecture-35045.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -105,15 +105,6 @@
     <x:t>salma Magdi Ibrahim Mostafa</x:t>
   </x:si>
   <x:si>
-    <x:t>1210143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى مدحت عبد الحكم شبل على</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Medhat AbdelHakam Shebl</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210241</x:t>
   </x:si>
   <x:si>
@@ -231,15 +222,6 @@
     <x:t>nancy mohamed hassan mobarak</x:t>
   </x:si>
   <x:si>
-    <x:t>1210317</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور شريف اسماعيل محمد عبد السميع</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nour Sherif Ismail Mohamed Abdel-Samie</x:t>
-  </x:si>
-  <x:si>
     <x:t>1200930</x:t>
   </x:si>
   <x:si>
@@ -265,15 +247,6 @@
   </x:si>
   <x:si>
     <x:t>HANA  ASHRAF ABOELHAMAID ABOBAKR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>هنا ممدوح جابر عبده</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hana Mamdouh Gaber Abdo</x:t>
   </x:si>
   <x:si>
     <x:t>1210326</x:t>
@@ -407,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1054,7 +1027,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4178362269</x:v>
+        <x:v>45906.6651263079</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1086,7 +1059,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6651263079</x:v>
+        <x:v>45914.9400569097</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1118,7 +1091,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.9400569097</x:v>
+        <x:v>45914.9399318634</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1150,7 +1123,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.9399318634</x:v>
+        <x:v>45918.3984349884</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1182,7 +1155,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45918.3984349884</x:v>
+        <x:v>45906.6661830671</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1214,7 +1187,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6661830671</x:v>
+        <x:v>45909.6136512731</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1246,7 +1219,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.6136512731</x:v>
+        <x:v>45928.5986616551</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1278,7 +1251,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45928.5986616551</x:v>
+        <x:v>45914.9369973727</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1310,7 +1283,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.9369973727</x:v>
+        <x:v>45906.6648953356</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1342,7 +1315,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6648953356</x:v>
+        <x:v>45906.4321676736</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1374,7 +1347,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4321676736</x:v>
+        <x:v>45906.6647484954</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1406,7 +1379,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6647484954</x:v>
+        <x:v>45906.5695733449</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1438,7 +1411,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.5695733449</x:v>
+        <x:v>45906.4149612269</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1470,7 +1443,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4149612269</x:v>
+        <x:v>45914.9381506944</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1502,7 +1475,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.415259375</x:v>
+        <x:v>45906.4496525116</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1507,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.9381506944</x:v>
+        <x:v>45906.6647642014</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1539,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4496525116</x:v>
+        <x:v>45914.9358393518</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1598,7 +1571,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6647642014</x:v>
+        <x:v>45906.6653604977</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1615,102 +1588,6 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45906.4144680556</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45914.9358393518</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45906.6653604977</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS209_Lecture-35045.xlsx
+++ b/downloaded_files/GENS209_Lecture-35045.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,6 +60,15 @@
     <x:t>Alaa Waleed Hussein Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1220043</x:t>
+  </x:si>
+  <x:si>
+    <x:t>بلال محمد عبدالمقصود رمضان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Belal mohamed abd elmaksod</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210132</x:t>
   </x:si>
   <x:si>
@@ -78,15 +87,6 @@
     <x:t>Jomana Waleed Abdel Moneim Amin Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1210350</x:t>
-  </x:si>
-  <x:si>
-    <x:t>دانيال رائد منير تقاوي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Daniel Raed Mounir Takawi</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240310</x:t>
   </x:si>
   <x:si>
@@ -175,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Emad Mahmoud Abdelhalim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم سمير ماهر مسيحه صليب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mariam Samir Maher Massiha</x:t>
   </x:si>
   <x:si>
     <x:t>1210305</x:t>
@@ -380,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -867,7 +876,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6646321412</x:v>
+        <x:v>45929.378846875</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -899,7 +908,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45909.9131163542</x:v>
+        <x:v>45906.6646321412</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -931,7 +940,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6645659375</x:v>
+        <x:v>45909.9131163542</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1283,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6648953356</x:v>
+        <x:v>45929.5830496875</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1315,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4321676736</x:v>
+        <x:v>45906.6648953356</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1347,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6647484954</x:v>
+        <x:v>45906.4321676736</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1379,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.5695733449</x:v>
+        <x:v>45906.6647484954</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1411,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4149612269</x:v>
+        <x:v>45906.5695733449</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1443,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.9381506944</x:v>
+        <x:v>45906.4149612269</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1475,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4496525116</x:v>
+        <x:v>45914.9381506944</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1507,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6647642014</x:v>
+        <x:v>45906.4496525116</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.9358393518</x:v>
+        <x:v>45906.6647642014</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1571,7 +1580,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6653604977</x:v>
+        <x:v>45914.9358393518</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1588,6 +1597,38 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45906.6653604977</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS209_Lecture-35045.xlsx
+++ b/downloaded_files/GENS209_Lecture-35045.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -148,15 +148,6 @@
   </x:si>
   <x:si>
     <x:t>Mazen abdelreheem shams el din</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد احمد شعبان محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mohamed ahmed shaaban</x:t>
   </x:si>
   <x:si>
     <x:t>1190529</x:t>
@@ -389,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1196,7 +1187,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.6136512731</x:v>
+        <x:v>45928.5986616551</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1228,7 +1219,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45928.5986616551</x:v>
+        <x:v>45914.9369973727</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1260,7 +1251,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.9369973727</x:v>
+        <x:v>45929.5830496875</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1292,7 +1283,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45929.5830496875</x:v>
+        <x:v>45906.6648953356</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1324,7 +1315,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6648953356</x:v>
+        <x:v>45906.4321676736</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1356,7 +1347,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4321676736</x:v>
+        <x:v>45906.6647484954</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1388,7 +1379,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6647484954</x:v>
+        <x:v>45906.5695733449</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1420,7 +1411,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.5695733449</x:v>
+        <x:v>45906.4149612269</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1452,7 +1443,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4149612269</x:v>
+        <x:v>45914.9381506944</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1484,7 +1475,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.9381506944</x:v>
+        <x:v>45906.4496525116</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1516,7 +1507,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4496525116</x:v>
+        <x:v>45906.6647642014</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1548,7 +1539,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6647642014</x:v>
+        <x:v>45914.9358393518</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1580,7 +1571,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.9358393518</x:v>
+        <x:v>45906.6653604977</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1597,38 +1588,6 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45906.6653604977</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS209_Lecture-35045.xlsx
+++ b/downloaded_files/GENS209_Lecture-35045.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,6 +157,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Khaled Ahmed Hessien</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200437</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد كمال عبد الجواد عبد الجواد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed kamal Abdelgawad Abdelgawad</x:t>
   </x:si>
   <x:si>
     <x:t>1210293</x:t>
@@ -380,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1219,7 +1228,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.9369973727</x:v>
+        <x:v>45933.6047251968</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1251,7 +1260,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45929.5830496875</x:v>
+        <x:v>45914.9369973727</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1283,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6648953356</x:v>
+        <x:v>45929.5830496875</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1315,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4321676736</x:v>
+        <x:v>45906.6648953356</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1347,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6647484954</x:v>
+        <x:v>45906.4321676736</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1379,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.5695733449</x:v>
+        <x:v>45906.6647484954</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1411,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4149612269</x:v>
+        <x:v>45906.5695733449</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1443,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.9381506944</x:v>
+        <x:v>45906.4149612269</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1475,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4496525116</x:v>
+        <x:v>45914.9381506944</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1507,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6647642014</x:v>
+        <x:v>45906.4496525116</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.9358393518</x:v>
+        <x:v>45906.6647642014</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1571,7 +1580,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6653604977</x:v>
+        <x:v>45914.9358393518</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1588,6 +1597,38 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45906.6653604977</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS209_Lecture-35045.xlsx
+++ b/downloaded_files/GENS209_Lecture-35045.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -274,6 +274,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Osama</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220088</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف حامد محمود يوسف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Hamed Mahmoud Youssef</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -389,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1629,6 +1638,38 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45934.6426726852</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
